--- a/organisation/Projektampel.xlsx
+++ b/organisation/Projektampel.xlsx
@@ -82,7 +82,7 @@
     <t xml:space="preserve">Scrum Master</t>
   </si>
   <si>
-    <t xml:space="preserve">Peter Leoner</t>
+    <t xml:space="preserve">Peter Leonov</t>
   </si>
   <si>
     <t xml:space="preserve">Erstellung des Zeitplans</t>
@@ -167,7 +167,7 @@
     <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
     <numFmt numFmtId="167" formatCode="dd/mm/yy;@"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -237,12 +237,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -319,7 +313,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -388,11 +382,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -512,16 +502,16 @@
   </sheetPr>
   <dimension ref="B1:O78"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="I29" activeCellId="0" sqref="I29"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="I29" activeCellId="7" sqref="E11 E21 E30 F10 F14 F18 F28 I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="0.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="50.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21.71"/>
@@ -826,7 +816,7 @@
       <c r="E16" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="17" t="s">
+      <c r="F16" s="9" t="s">
         <v>19</v>
       </c>
       <c r="G16" s="14" t="n">
@@ -971,7 +961,7 @@
       <c r="H22" s="14" t="n">
         <v>44504</v>
       </c>
-      <c r="I22" s="18" t="n">
+      <c r="I22" s="17" t="n">
         <v>2</v>
       </c>
       <c r="J22" s="9"/>
@@ -1058,7 +1048,7 @@
       <c r="H26" s="14" t="n">
         <v>44546</v>
       </c>
-      <c r="I26" s="18" t="n">
+      <c r="I26" s="17" t="n">
         <v>1</v>
       </c>
       <c r="J26" s="9"/>
@@ -1135,15 +1125,15 @@
       <c r="J29" s="9"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="19"/>
-      <c r="C30" s="20"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="19"/>
       <c r="D30" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E30" s="20" t="s">
+      <c r="E30" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="F30" s="20" t="s">
+      <c r="F30" s="19" t="s">
         <v>17</v>
       </c>
       <c r="G30" s="14" t="n">
@@ -1155,7 +1145,7 @@
       <c r="I30" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="J30" s="20"/>
+      <c r="J30" s="19"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="0"/>
@@ -1168,7 +1158,7 @@
       <c r="F31" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="G31" s="21" t="n">
+      <c r="G31" s="20" t="n">
         <v>44504</v>
       </c>
       <c r="H31" s="0"/>
@@ -1180,197 +1170,197 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
-      <c r="K33" s="23"/>
-      <c r="L33" s="23"/>
-      <c r="M33" s="23"/>
-      <c r="N33" s="23"/>
-      <c r="O33" s="23"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="22"/>
+      <c r="O33" s="22"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G38" s="22"/>
-      <c r="H38" s="22"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G39" s="22"/>
-      <c r="H39" s="22"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G40" s="22"/>
-      <c r="H40" s="22"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G41" s="22"/>
-      <c r="H41" s="22"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G42" s="22"/>
-      <c r="H42" s="22"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="21"/>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G43" s="22"/>
-      <c r="H43" s="22"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G44" s="22"/>
-      <c r="H44" s="22"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="21"/>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G45" s="22"/>
-      <c r="H45" s="22"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="21"/>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G46" s="22"/>
-      <c r="H46" s="22"/>
+      <c r="G46" s="21"/>
+      <c r="H46" s="21"/>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G47" s="22"/>
-      <c r="H47" s="22"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="21"/>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G48" s="22"/>
-      <c r="H48" s="22"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="21"/>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G49" s="22"/>
-      <c r="H49" s="22"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="21"/>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G50" s="22"/>
-      <c r="H50" s="22"/>
+      <c r="G50" s="21"/>
+      <c r="H50" s="21"/>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G51" s="22"/>
-      <c r="H51" s="22"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="21"/>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G52" s="22"/>
-      <c r="H52" s="22"/>
+      <c r="G52" s="21"/>
+      <c r="H52" s="21"/>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G53" s="22"/>
-      <c r="H53" s="22"/>
+      <c r="G53" s="21"/>
+      <c r="H53" s="21"/>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G54" s="22"/>
-      <c r="H54" s="22"/>
+      <c r="G54" s="21"/>
+      <c r="H54" s="21"/>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G55" s="22"/>
-      <c r="H55" s="22"/>
+      <c r="G55" s="21"/>
+      <c r="H55" s="21"/>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G56" s="22"/>
-      <c r="H56" s="22"/>
+      <c r="G56" s="21"/>
+      <c r="H56" s="21"/>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G57" s="22"/>
-      <c r="H57" s="22"/>
+      <c r="G57" s="21"/>
+      <c r="H57" s="21"/>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G58" s="22"/>
-      <c r="H58" s="22"/>
+      <c r="G58" s="21"/>
+      <c r="H58" s="21"/>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G59" s="22"/>
-      <c r="H59" s="22"/>
+      <c r="G59" s="21"/>
+      <c r="H59" s="21"/>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G60" s="22"/>
-      <c r="H60" s="22"/>
+      <c r="G60" s="21"/>
+      <c r="H60" s="21"/>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G61" s="22"/>
-      <c r="H61" s="22"/>
+      <c r="G61" s="21"/>
+      <c r="H61" s="21"/>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G62" s="22"/>
-      <c r="H62" s="22"/>
+      <c r="G62" s="21"/>
+      <c r="H62" s="21"/>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G63" s="22"/>
-      <c r="H63" s="22"/>
+      <c r="G63" s="21"/>
+      <c r="H63" s="21"/>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G64" s="22"/>
-      <c r="H64" s="22"/>
+      <c r="G64" s="21"/>
+      <c r="H64" s="21"/>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G65" s="22"/>
-      <c r="H65" s="22"/>
+      <c r="G65" s="21"/>
+      <c r="H65" s="21"/>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G66" s="22"/>
-      <c r="H66" s="22"/>
+      <c r="G66" s="21"/>
+      <c r="H66" s="21"/>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G67" s="22"/>
-      <c r="H67" s="22"/>
+      <c r="G67" s="21"/>
+      <c r="H67" s="21"/>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G68" s="22"/>
-      <c r="H68" s="22"/>
+      <c r="G68" s="21"/>
+      <c r="H68" s="21"/>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G69" s="22"/>
-      <c r="H69" s="22"/>
+      <c r="G69" s="21"/>
+      <c r="H69" s="21"/>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G70" s="22"/>
-      <c r="H70" s="22"/>
+      <c r="G70" s="21"/>
+      <c r="H70" s="21"/>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G71" s="22"/>
-      <c r="H71" s="22"/>
+      <c r="G71" s="21"/>
+      <c r="H71" s="21"/>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G72" s="22"/>
-      <c r="H72" s="22"/>
+      <c r="G72" s="21"/>
+      <c r="H72" s="21"/>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G73" s="22"/>
-      <c r="H73" s="22"/>
+      <c r="G73" s="21"/>
+      <c r="H73" s="21"/>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G74" s="22"/>
-      <c r="H74" s="22"/>
+      <c r="G74" s="21"/>
+      <c r="H74" s="21"/>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G75" s="22"/>
-      <c r="H75" s="22"/>
+      <c r="G75" s="21"/>
+      <c r="H75" s="21"/>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G76" s="22"/>
-      <c r="H76" s="22"/>
+      <c r="G76" s="21"/>
+      <c r="H76" s="21"/>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G77" s="22"/>
-      <c r="H77" s="22"/>
+      <c r="G77" s="21"/>
+      <c r="H77" s="21"/>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G78" s="22"/>
-      <c r="H78" s="22"/>
+      <c r="G78" s="21"/>
+      <c r="H78" s="21"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="N11:N12 N6:N7">
@@ -1473,18 +1463,18 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C76:C199" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C76:C199" type="list">
       <formula1>$N$3:$N$8</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C32:C75" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C32:C75" type="list">
       <formula1>$N$3:$N$10</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/organisation/Projektampel.xlsx
+++ b/organisation/Projektampel.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Philipp.Stoehr\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6900" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Projektampel" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Projektampel" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,154 +24,154 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="45">
-  <si>
-    <t xml:space="preserve">Erledigt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kategorie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aufgabe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verantwortlich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stellvertretung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Start</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ende</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anmerkung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neue Produkte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grobplanung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gesamtes Team</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Festlegung der Projektidee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Projektplanung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erstellung der Github Organisation und Repository</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Github-Admin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DB-Verantwortlicher</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erstellung des Logos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scrum Master</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peter Leonov</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erstellung des Zeitplans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Architektur und grobe Projektbeschreibung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Florian Vogl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erstellung ER-Diagramm für die Datenbank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entwurf für Quizfragen im JSON-Format</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erstellung Prototyp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erstellung Rangliste</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erstellung der Datenschutzerklärung &amp; Impressum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erstes Skript für DB-Erstellung anlegen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erstellung des Quizbuilders, LetsQuiz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erstellung der Seite mit verschiedenen Quiztypen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erstellung der Login-Seite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Konkretisierung der Planung</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="46">
+  <si>
+    <t>Erledigt</t>
+  </si>
+  <si>
+    <t>Kategorie</t>
+  </si>
+  <si>
+    <t>Aufgabe</t>
+  </si>
+  <si>
+    <t>verantwortlich</t>
+  </si>
+  <si>
+    <t>Stellvertretung</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>Ende</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Anmerkung</t>
+  </si>
+  <si>
+    <t>Neue Produkte</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>Grobplanung</t>
+  </si>
+  <si>
+    <t>Gesamtes Team</t>
+  </si>
+  <si>
+    <t>Festlegung der Projektidee</t>
+  </si>
+  <si>
+    <t>Projektplanung</t>
+  </si>
+  <si>
+    <t>Erstellung der Github Organisation und Repository</t>
+  </si>
+  <si>
+    <t>Github-Admin</t>
+  </si>
+  <si>
+    <t>DB-Verantwortlicher</t>
+  </si>
+  <si>
+    <t>Erstellung des Logos</t>
+  </si>
+  <si>
+    <t>Scrum Master</t>
+  </si>
+  <si>
+    <t>Peter Leonov</t>
+  </si>
+  <si>
+    <t>Erstellung des Zeitplans</t>
+  </si>
+  <si>
+    <t>Architektur und grobe Projektbeschreibung</t>
+  </si>
+  <si>
+    <t>Florian Vogl</t>
+  </si>
+  <si>
+    <t>Erstellung ER-Diagramm für die Datenbank</t>
+  </si>
+  <si>
+    <t>Entwurf für Quizfragen im JSON-Format</t>
+  </si>
+  <si>
+    <t>Erstellung Prototyp</t>
+  </si>
+  <si>
+    <t>Erstellung Rangliste</t>
+  </si>
+  <si>
+    <t>Erstellung der Datenschutzerklärung &amp; Impressum</t>
+  </si>
+  <si>
+    <t>Erstes Skript für DB-Erstellung anlegen</t>
+  </si>
+  <si>
+    <t>Erstellung des Quizbuilders, LetsQuiz</t>
+  </si>
+  <si>
+    <t>Erstellung der Seite mit verschiedenen Quiztypen</t>
+  </si>
+  <si>
+    <t>Erstellung der Login-Seite</t>
+  </si>
+  <si>
+    <t>Konkretisierung der Planung</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t xml:space="preserve">Textuelle OOA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erstellung eines Use-Case Diagramms (OOA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Klassendiagramm (OOD)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">abhängig von textueller OOA sowie Use-Case</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implementierung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erstellung generischer PHP-Klassen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erstellung der LetsQuiz Seite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">abhängig von generischen PHP-Klassen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erstellung der Profil-Seite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erstellung der Quiz-Builder-Seite</t>
+    <t>Textuelle OOA</t>
+  </si>
+  <si>
+    <t>Erstellung eines Use-Case Diagramms (OOA)</t>
+  </si>
+  <si>
+    <t>Klassendiagramm (OOD)</t>
+  </si>
+  <si>
+    <t>abhängig von textueller OOA sowie Use-Case</t>
+  </si>
+  <si>
+    <t>Implementierung</t>
+  </si>
+  <si>
+    <t>Erstellung generischer PHP-Klassen</t>
+  </si>
+  <si>
+    <t>Erstellung der LetsQuiz Seite</t>
+  </si>
+  <si>
+    <t>abhängig von generischen PHP-Klassen</t>
+  </si>
+  <si>
+    <t>Erstellung der Profil-Seite</t>
+  </si>
+  <si>
+    <t>Erstellung der Quiz-Builder-Seite</t>
+  </si>
+  <si>
+    <t>Anpassung der Multiple-Choice-Fragen auf Radio-Button</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
-    <numFmt numFmtId="167" formatCode="dd/mm/yy;@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="dd/mm/yy;@"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -176,22 +180,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
@@ -199,7 +188,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -207,7 +196,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -215,15 +204,14 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Marlett"/>
-      <family val="0"/>
       <charset val="2"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="13"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -259,162 +247,115 @@
     </fill>
   </fills>
   <borders count="4">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="hair"/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="22">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="23">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  <cellStyles count="1">
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -473,14 +414,30 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="B3:J31" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="B3:J31"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="B3:J32" totalsRowShown="0">
+  <autoFilter ref="B3:J32"/>
   <tableColumns count="9">
     <tableColumn id="1" name="Erledigt"/>
     <tableColumn id="2" name="Kategorie"/>
@@ -492,43 +449,302 @@
     <tableColumn id="8" name="Status"/>
     <tableColumn id="9" name="Anmerkung"/>
   </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O78"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="I29" activeCellId="7" sqref="E11 E21 E30 F10 F14 F18 F28 I29"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="0.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="50.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="19.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="11.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="11.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="52.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="11.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="11.42"/>
+    <col min="1" max="1" width="0.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" customWidth="1"/>
+    <col min="4" max="4" width="50.28515625" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" customWidth="1"/>
+    <col min="7" max="8" width="11.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="52.7109375" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="5.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="2:14" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
@@ -557,7 +773,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -568,7 +784,7 @@
       <c r="I4" s="7"/>
       <c r="J4" s="6"/>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="8"/>
       <c r="C5" s="9" t="s">
         <v>9</v>
@@ -581,7 +797,7 @@
       <c r="I5" s="11"/>
       <c r="J5" s="9"/>
     </row>
-    <row r="6" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="2:14" ht="18" x14ac:dyDescent="0.3">
       <c r="B6" s="12" t="s">
         <v>10</v>
       </c>
@@ -593,19 +809,19 @@
         <v>12</v>
       </c>
       <c r="F6" s="9"/>
-      <c r="G6" s="14" t="n">
+      <c r="G6" s="14">
         <v>44474</v>
       </c>
-      <c r="H6" s="14" t="n">
+      <c r="H6" s="14">
         <v>44481</v>
       </c>
-      <c r="I6" s="11" t="n">
+      <c r="I6" s="11">
         <v>2</v>
       </c>
       <c r="J6" s="9"/>
       <c r="N6" s="15"/>
     </row>
-    <row r="7" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="2:14" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B7" s="12"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9" t="s">
@@ -615,19 +831,19 @@
         <v>12</v>
       </c>
       <c r="F7" s="9"/>
-      <c r="G7" s="14" t="n">
+      <c r="G7" s="14">
         <v>44474</v>
       </c>
-      <c r="H7" s="14" t="n">
+      <c r="H7" s="14">
         <v>44476</v>
       </c>
-      <c r="I7" s="11" t="n">
+      <c r="I7" s="11">
         <v>2</v>
       </c>
       <c r="J7" s="9"/>
       <c r="N7" s="15"/>
     </row>
-    <row r="8" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="2:14" ht="18" x14ac:dyDescent="0.3">
       <c r="B8" s="12" t="s">
         <v>10</v>
       </c>
@@ -637,18 +853,18 @@
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
-      <c r="G8" s="14" t="n">
+      <c r="G8" s="14">
         <v>44477</v>
       </c>
-      <c r="H8" s="14" t="n">
+      <c r="H8" s="14">
         <v>44484</v>
       </c>
-      <c r="I8" s="11" t="n">
+      <c r="I8" s="11">
         <v>2</v>
       </c>
       <c r="J8" s="9"/>
     </row>
-    <row r="9" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="2:14" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B9" s="12"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
@@ -660,18 +876,18 @@
       <c r="F9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="14" t="n">
+      <c r="G9" s="14">
         <v>44481</v>
       </c>
-      <c r="H9" s="14" t="n">
+      <c r="H9" s="14">
         <v>44481</v>
       </c>
-      <c r="I9" s="11" t="n">
+      <c r="I9" s="11">
         <v>2</v>
       </c>
       <c r="J9" s="9"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9" t="s">
@@ -683,18 +899,18 @@
       <c r="F10" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="14" t="n">
+      <c r="G10" s="14">
         <v>44479</v>
       </c>
-      <c r="H10" s="14" t="n">
+      <c r="H10" s="14">
         <v>44481</v>
       </c>
-      <c r="I10" s="11" t="n">
+      <c r="I10" s="11">
         <v>2</v>
       </c>
       <c r="J10" s="9"/>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="8"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9" t="s">
@@ -706,19 +922,19 @@
       <c r="F11" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="14" t="n">
+      <c r="G11" s="14">
         <v>44481</v>
       </c>
-      <c r="H11" s="14" t="n">
+      <c r="H11" s="14">
         <v>44482</v>
       </c>
-      <c r="I11" s="11" t="n">
+      <c r="I11" s="11">
         <v>2</v>
       </c>
       <c r="J11" s="9"/>
       <c r="N11" s="16"/>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="8"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9" t="s">
@@ -730,19 +946,19 @@
       <c r="F12" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="14" t="n">
+      <c r="G12" s="14">
         <v>44477</v>
       </c>
-      <c r="H12" s="14" t="n">
+      <c r="H12" s="14">
         <v>42219</v>
       </c>
-      <c r="I12" s="11" t="n">
+      <c r="I12" s="11">
         <v>2</v>
       </c>
       <c r="J12" s="9"/>
       <c r="N12" s="15"/>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="8"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9" t="s">
@@ -754,18 +970,18 @@
       <c r="F13" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G13" s="14" t="n">
+      <c r="G13" s="14">
         <v>44482</v>
       </c>
-      <c r="H13" s="14" t="n">
+      <c r="H13" s="14">
         <v>44483</v>
       </c>
-      <c r="I13" s="11" t="n">
+      <c r="I13" s="11">
         <v>2</v>
       </c>
       <c r="J13" s="9"/>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="8"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9" t="s">
@@ -777,18 +993,18 @@
       <c r="F14" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="14" t="n">
+      <c r="G14" s="14">
         <v>44484</v>
       </c>
-      <c r="H14" s="14" t="n">
+      <c r="H14" s="14">
         <v>44484</v>
       </c>
-      <c r="I14" s="11" t="n">
+      <c r="I14" s="11">
         <v>2</v>
       </c>
       <c r="J14" s="9"/>
     </row>
-    <row r="15" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B15" s="8"/>
       <c r="C15" s="9"/>
       <c r="D15" s="13" t="s">
@@ -796,18 +1012,18 @@
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
-      <c r="G15" s="14" t="n">
+      <c r="G15" s="14">
         <v>44484</v>
       </c>
-      <c r="H15" s="14" t="n">
+      <c r="H15" s="14">
         <v>44490</v>
       </c>
-      <c r="I15" s="11" t="n">
+      <c r="I15" s="11">
         <v>2</v>
       </c>
       <c r="J15" s="9"/>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="8"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9" t="s">
@@ -819,18 +1035,18 @@
       <c r="F16" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="14" t="n">
+      <c r="G16" s="14">
         <v>44484</v>
       </c>
-      <c r="H16" s="14" t="n">
+      <c r="H16" s="14">
         <v>44487</v>
       </c>
-      <c r="I16" s="11" t="n">
+      <c r="I16" s="11">
         <v>2</v>
       </c>
       <c r="J16" s="9"/>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="8"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9" t="s">
@@ -842,18 +1058,18 @@
       <c r="F17" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="14" t="n">
+      <c r="G17" s="14">
         <v>44484</v>
       </c>
-      <c r="H17" s="14" t="n">
+      <c r="H17" s="14">
         <v>44487</v>
       </c>
-      <c r="I17" s="11" t="n">
+      <c r="I17" s="11">
         <v>2</v>
       </c>
       <c r="J17" s="9"/>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="8"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9" t="s">
@@ -865,18 +1081,18 @@
       <c r="F18" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G18" s="14" t="n">
+      <c r="G18" s="14">
         <v>44487</v>
       </c>
-      <c r="H18" s="14" t="n">
+      <c r="H18" s="14">
         <v>44489</v>
       </c>
-      <c r="I18" s="11" t="n">
+      <c r="I18" s="11">
         <v>2</v>
       </c>
       <c r="J18" s="9"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="8"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9" t="s">
@@ -888,18 +1104,18 @@
       <c r="F19" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G19" s="14" t="n">
+      <c r="G19" s="14">
         <v>44485</v>
       </c>
-      <c r="H19" s="14" t="n">
+      <c r="H19" s="14">
         <v>44489</v>
       </c>
-      <c r="I19" s="11" t="n">
+      <c r="I19" s="11">
         <v>2</v>
       </c>
       <c r="J19" s="9"/>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="8"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9" t="s">
@@ -911,18 +1127,18 @@
       <c r="F20" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G20" s="14" t="n">
+      <c r="G20" s="14">
         <v>44488</v>
       </c>
-      <c r="H20" s="14" t="n">
+      <c r="H20" s="14">
         <v>44489</v>
       </c>
-      <c r="I20" s="11" t="n">
+      <c r="I20" s="11">
         <v>2</v>
       </c>
       <c r="J20" s="9"/>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="8"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9" t="s">
@@ -934,18 +1150,18 @@
       <c r="F21" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G21" s="14" t="n">
+      <c r="G21" s="14">
         <v>44487</v>
       </c>
-      <c r="H21" s="14" t="n">
+      <c r="H21" s="14">
         <v>44490</v>
       </c>
-      <c r="I21" s="11" t="n">
+      <c r="I21" s="11">
         <v>2</v>
       </c>
       <c r="J21" s="9"/>
     </row>
-    <row r="22" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="2:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B22" s="8"/>
       <c r="C22" s="9"/>
       <c r="D22" s="13" t="s">
@@ -955,18 +1171,18 @@
         <v>34</v>
       </c>
       <c r="F22" s="9"/>
-      <c r="G22" s="14" t="n">
+      <c r="G22" s="14">
         <v>44490</v>
       </c>
-      <c r="H22" s="14" t="n">
+      <c r="H22" s="14">
         <v>44504</v>
       </c>
-      <c r="I22" s="17" t="n">
+      <c r="I22" s="17">
         <v>2</v>
       </c>
       <c r="J22" s="9"/>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="8"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9" t="s">
@@ -978,19 +1194,19 @@
       <c r="F23" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G23" s="14" t="n">
+      <c r="G23" s="14">
         <v>44492</v>
       </c>
-      <c r="H23" s="14" t="n">
+      <c r="H23" s="14">
         <v>44496</v>
       </c>
-      <c r="I23" s="11" t="n">
+      <c r="I23" s="11">
         <v>2</v>
       </c>
       <c r="J23" s="9"/>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="0"/>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24"/>
       <c r="D24" s="9" t="s">
         <v>36</v>
       </c>
@@ -1000,17 +1216,17 @@
       <c r="F24" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G24" s="14" t="n">
+      <c r="G24" s="14">
         <v>44496</v>
       </c>
-      <c r="H24" s="14" t="n">
+      <c r="H24" s="14">
         <v>44500</v>
       </c>
-      <c r="I24" s="11" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I24" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="8"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9" t="s">
@@ -1022,38 +1238,38 @@
       <c r="F25" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G25" s="14" t="n">
+      <c r="G25" s="14">
         <v>44500</v>
       </c>
-      <c r="H25" s="14" t="n">
+      <c r="H25" s="14">
         <v>44504</v>
       </c>
-      <c r="I25" s="11" t="n">
+      <c r="I25" s="11">
         <v>2</v>
       </c>
       <c r="J25" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="2:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B26" s="8"/>
       <c r="C26" s="9"/>
       <c r="D26" s="13" t="s">
         <v>39</v>
       </c>
       <c r="E26" s="9"/>
-      <c r="G26" s="14" t="n">
+      <c r="G26" s="14">
         <v>44504</v>
       </c>
-      <c r="H26" s="14" t="n">
+      <c r="H26" s="14">
         <v>44546</v>
       </c>
-      <c r="I26" s="17" t="n">
-        <v>1</v>
+      <c r="I26" s="11">
+        <v>2</v>
       </c>
       <c r="J26" s="9"/>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="8"/>
       <c r="C27" s="9"/>
       <c r="D27" s="9" t="s">
@@ -1065,18 +1281,18 @@
       <c r="F27" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G27" s="14" t="n">
+      <c r="G27" s="14">
         <v>44504</v>
       </c>
-      <c r="H27" s="14" t="n">
+      <c r="H27" s="14">
         <v>44515</v>
       </c>
-      <c r="I27" s="11" t="n">
+      <c r="I27" s="11">
         <v>2</v>
       </c>
       <c r="J27" s="9"/>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="8"/>
       <c r="C28" s="9"/>
       <c r="D28" s="9" t="s">
@@ -1088,20 +1304,20 @@
       <c r="F28" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G28" s="14" t="n">
+      <c r="G28" s="14">
         <v>44504</v>
       </c>
-      <c r="H28" s="14" t="n">
+      <c r="H28" s="14">
         <v>44514</v>
       </c>
-      <c r="I28" s="11" t="n">
+      <c r="I28" s="11">
         <v>2</v>
       </c>
       <c r="J28" s="9" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="8"/>
       <c r="C29" s="9"/>
       <c r="D29" s="9" t="s">
@@ -1113,18 +1329,18 @@
       <c r="F29" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G29" s="14" t="n">
+      <c r="G29" s="14">
         <v>44504</v>
       </c>
-      <c r="H29" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="I29" s="11" t="n">
-        <v>1</v>
+      <c r="H29" s="14">
+        <v>44530</v>
+      </c>
+      <c r="I29" s="11">
+        <v>2</v>
       </c>
       <c r="J29" s="9"/>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="18"/>
       <c r="C30" s="19"/>
       <c r="D30" s="9" t="s">
@@ -1136,245 +1352,263 @@
       <c r="F30" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="G30" s="14" t="n">
+      <c r="G30" s="14">
         <v>44504</v>
       </c>
-      <c r="H30" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="I30" s="11" t="n">
-        <v>1</v>
+      <c r="H30" s="14">
+        <v>44530</v>
+      </c>
+      <c r="I30" s="11">
+        <v>2</v>
       </c>
       <c r="J30" s="19"/>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="0"/>
-      <c r="D31" s="0" t="s">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B31"/>
+      <c r="D31" t="s">
         <v>44</v>
       </c>
-      <c r="E31" s="0" t="s">
+      <c r="E31" t="s">
         <v>23</v>
       </c>
-      <c r="F31" s="0" t="s">
+      <c r="F31" t="s">
         <v>19</v>
       </c>
-      <c r="G31" s="20" t="n">
+      <c r="G31" s="14">
         <v>44504</v>
       </c>
-      <c r="H31" s="0"/>
-      <c r="I31" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J31" s="0" t="s">
+      <c r="H31" s="14">
+        <v>44530</v>
+      </c>
+      <c r="I31" s="11">
+        <v>2</v>
+      </c>
+      <c r="J31" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-      <c r="K33" s="22"/>
-      <c r="L33" s="22"/>
-      <c r="M33" s="22"/>
-      <c r="N33" s="22"/>
-      <c r="O33" s="22"/>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G40" s="21"/>
-      <c r="H40" s="21"/>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G41" s="21"/>
-      <c r="H41" s="21"/>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G42" s="21"/>
-      <c r="H42" s="21"/>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G43" s="21"/>
-      <c r="H43" s="21"/>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G44" s="21"/>
-      <c r="H44" s="21"/>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G45" s="21"/>
-      <c r="H45" s="21"/>
-    </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G46" s="21"/>
-      <c r="H46" s="21"/>
-    </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G47" s="21"/>
-      <c r="H47" s="21"/>
-    </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G48" s="21"/>
-      <c r="H48" s="21"/>
-    </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G49" s="21"/>
-      <c r="H49" s="21"/>
-    </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G50" s="21"/>
-      <c r="H50" s="21"/>
-    </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G51" s="21"/>
-      <c r="H51" s="21"/>
-    </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G52" s="21"/>
-      <c r="H52" s="21"/>
-    </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G53" s="21"/>
-      <c r="H53" s="21"/>
-    </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G54" s="21"/>
-      <c r="H54" s="21"/>
-    </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G55" s="21"/>
-      <c r="H55" s="21"/>
-    </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G56" s="21"/>
-      <c r="H56" s="21"/>
-    </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G57" s="21"/>
-      <c r="H57" s="21"/>
-    </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G58" s="21"/>
-      <c r="H58" s="21"/>
-    </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G59" s="21"/>
-      <c r="H59" s="21"/>
-    </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G60" s="21"/>
-      <c r="H60" s="21"/>
-    </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G61" s="21"/>
-      <c r="H61" s="21"/>
-    </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G62" s="21"/>
-      <c r="H62" s="21"/>
-    </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G63" s="21"/>
-      <c r="H63" s="21"/>
-    </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G64" s="21"/>
-      <c r="H64" s="21"/>
-    </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G65" s="21"/>
-      <c r="H65" s="21"/>
-    </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G66" s="21"/>
-      <c r="H66" s="21"/>
-    </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G67" s="21"/>
-      <c r="H67" s="21"/>
-    </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G68" s="21"/>
-      <c r="H68" s="21"/>
-    </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G69" s="21"/>
-      <c r="H69" s="21"/>
-    </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G70" s="21"/>
-      <c r="H70" s="21"/>
-    </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G71" s="21"/>
-      <c r="H71" s="21"/>
-    </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G72" s="21"/>
-      <c r="H72" s="21"/>
-    </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G73" s="21"/>
-      <c r="H73" s="21"/>
-    </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G74" s="21"/>
-      <c r="H74" s="21"/>
-    </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G75" s="21"/>
-      <c r="H75" s="21"/>
-    </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G76" s="21"/>
-      <c r="H76" s="21"/>
-    </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G77" s="21"/>
-      <c r="H77" s="21"/>
-    </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G78" s="21"/>
-      <c r="H78" s="21"/>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>45</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G32" s="14">
+        <v>44530</v>
+      </c>
+      <c r="H32" s="14">
+        <v>44530</v>
+      </c>
+      <c r="I32" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="21"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="21"/>
+      <c r="O33" s="21"/>
+    </row>
+    <row r="34" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+    </row>
+    <row r="35" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+    </row>
+    <row r="36" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+    </row>
+    <row r="37" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+    </row>
+    <row r="38" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+    </row>
+    <row r="39" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+    </row>
+    <row r="40" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+    </row>
+    <row r="41" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G41" s="20"/>
+      <c r="H41" s="20"/>
+    </row>
+    <row r="42" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G42" s="20"/>
+      <c r="H42" s="20"/>
+    </row>
+    <row r="43" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G43" s="20"/>
+      <c r="H43" s="20"/>
+    </row>
+    <row r="44" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G44" s="20"/>
+      <c r="H44" s="20"/>
+    </row>
+    <row r="45" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G45" s="20"/>
+      <c r="H45" s="20"/>
+    </row>
+    <row r="46" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G46" s="20"/>
+      <c r="H46" s="20"/>
+    </row>
+    <row r="47" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G47" s="20"/>
+      <c r="H47" s="20"/>
+    </row>
+    <row r="48" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G48" s="20"/>
+      <c r="H48" s="20"/>
+    </row>
+    <row r="49" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G49" s="20"/>
+      <c r="H49" s="20"/>
+    </row>
+    <row r="50" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G50" s="20"/>
+      <c r="H50" s="20"/>
+    </row>
+    <row r="51" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G51" s="20"/>
+      <c r="H51" s="20"/>
+    </row>
+    <row r="52" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G52" s="20"/>
+      <c r="H52" s="20"/>
+    </row>
+    <row r="53" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G53" s="20"/>
+      <c r="H53" s="20"/>
+    </row>
+    <row r="54" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G54" s="20"/>
+      <c r="H54" s="20"/>
+    </row>
+    <row r="55" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G55" s="20"/>
+      <c r="H55" s="20"/>
+    </row>
+    <row r="56" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G56" s="20"/>
+      <c r="H56" s="20"/>
+    </row>
+    <row r="57" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G57" s="20"/>
+      <c r="H57" s="20"/>
+    </row>
+    <row r="58" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G58" s="20"/>
+      <c r="H58" s="20"/>
+    </row>
+    <row r="59" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G59" s="20"/>
+      <c r="H59" s="20"/>
+    </row>
+    <row r="60" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G60" s="20"/>
+      <c r="H60" s="20"/>
+    </row>
+    <row r="61" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G61" s="20"/>
+      <c r="H61" s="20"/>
+    </row>
+    <row r="62" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G62" s="20"/>
+      <c r="H62" s="20"/>
+    </row>
+    <row r="63" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G63" s="20"/>
+      <c r="H63" s="20"/>
+    </row>
+    <row r="64" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G64" s="20"/>
+      <c r="H64" s="20"/>
+    </row>
+    <row r="65" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G65" s="20"/>
+      <c r="H65" s="20"/>
+    </row>
+    <row r="66" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G66" s="20"/>
+      <c r="H66" s="20"/>
+    </row>
+    <row r="67" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G67" s="20"/>
+      <c r="H67" s="20"/>
+    </row>
+    <row r="68" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G68" s="20"/>
+      <c r="H68" s="20"/>
+    </row>
+    <row r="69" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G69" s="20"/>
+      <c r="H69" s="20"/>
+    </row>
+    <row r="70" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G70" s="20"/>
+      <c r="H70" s="20"/>
+    </row>
+    <row r="71" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G71" s="20"/>
+      <c r="H71" s="20"/>
+    </row>
+    <row r="72" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G72" s="20"/>
+      <c r="H72" s="20"/>
+    </row>
+    <row r="73" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G73" s="20"/>
+      <c r="H73" s="20"/>
+    </row>
+    <row r="74" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G74" s="20"/>
+      <c r="H74" s="20"/>
+    </row>
+    <row r="75" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G75" s="20"/>
+      <c r="H75" s="20"/>
+    </row>
+    <row r="76" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G76" s="20"/>
+      <c r="H76" s="20"/>
+    </row>
+    <row r="77" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G77" s="20"/>
+      <c r="H77" s="20"/>
+    </row>
+    <row r="78" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G78" s="20"/>
+      <c r="H78" s="20"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="N11:N12 N6:N7">
-    <cfRule type="iconSet" priority="2">
-      <iconSet iconSet="3TrafficLights1">
+    <cfRule type="iconSet" priority="6">
+      <iconSet>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
         <cfvo type="percent" val="67"/>
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I32 I34:I76 I21:I23 I25:I26 I13:I16 I18:I19">
-    <cfRule type="iconSet" priority="3">
-      <iconSet iconSet="3TrafficLights1" showValue="0">
+  <conditionalFormatting sqref="I34:I76 I21:I23 I13:I16 I18:I19 I25:I26">
+    <cfRule type="iconSet" priority="7">
+      <iconSet showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="1"/>
         <cfvo type="num" val="2"/>
@@ -1382,8 +1616,8 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:I12">
-    <cfRule type="iconSet" priority="4">
-      <iconSet iconSet="3TrafficLights1" showValue="0">
+    <cfRule type="iconSet" priority="8">
+      <iconSet showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="1"/>
         <cfvo type="num" val="2"/>
@@ -1391,8 +1625,8 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27">
-    <cfRule type="iconSet" priority="5">
-      <iconSet iconSet="3TrafficLights1" showValue="0">
+    <cfRule type="iconSet" priority="9">
+      <iconSet showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="1"/>
         <cfvo type="num" val="2"/>
@@ -1400,8 +1634,35 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28">
-    <cfRule type="iconSet" priority="6">
-      <iconSet iconSet="3TrafficLights1" showValue="0">
+    <cfRule type="iconSet" priority="10">
+      <iconSet showValue="0">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="2"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I17">
+    <cfRule type="iconSet" priority="14">
+      <iconSet showValue="0">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="2"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I20">
+    <cfRule type="iconSet" priority="15">
+      <iconSet showValue="0">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="2"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I24">
+    <cfRule type="iconSet" priority="16">
+      <iconSet showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="1"/>
         <cfvo type="num" val="2"/>
@@ -1409,8 +1670,8 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29">
-    <cfRule type="iconSet" priority="7">
-      <iconSet iconSet="3TrafficLights1" showValue="0">
+    <cfRule type="iconSet" priority="4">
+      <iconSet showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="1"/>
         <cfvo type="num" val="2"/>
@@ -1418,8 +1679,8 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30">
-    <cfRule type="iconSet" priority="8">
-      <iconSet iconSet="3TrafficLights1" showValue="0">
+    <cfRule type="iconSet" priority="3">
+      <iconSet showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="1"/>
         <cfvo type="num" val="2"/>
@@ -1427,35 +1688,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I31">
-    <cfRule type="iconSet" priority="9">
-      <iconSet iconSet="3TrafficLights1" showValue="0">
+    <cfRule type="iconSet" priority="2">
+      <iconSet showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="1"/>
         <cfvo type="num" val="2"/>
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I17">
-    <cfRule type="iconSet" priority="10">
-      <iconSet iconSet="3TrafficLights1" showValue="0">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="num" val="1"/>
-        <cfvo type="num" val="2"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I20">
-    <cfRule type="iconSet" priority="11">
-      <iconSet iconSet="3TrafficLights1" showValue="0">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="num" val="1"/>
-        <cfvo type="num" val="2"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I24">
-    <cfRule type="iconSet" priority="12">
-      <iconSet iconSet="3TrafficLights1" showValue="0">
+  <conditionalFormatting sqref="I32">
+    <cfRule type="iconSet" priority="1">
+      <iconSet showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="1"/>
         <cfvo type="num" val="2"/>
@@ -1463,23 +1706,18 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C76:C199" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C76:C199">
       <formula1>$N$3:$N$8</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C32:C75" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C32:C75">
       <formula1>$N$3:$N$10</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <tableParts>
+  <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
